--- a/appendix/tables.xlsx
+++ b/appendix/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20200191\Documents\Code Search for transfer learning\appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4022CE1C-0EBC-4FB6-A454-9FD64B59D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0968065-3065-48DF-9E58-6573E34D9B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{9D21373D-66BA-47A6-907A-2AEDF68BE146}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{9D21373D-66BA-47A6-907A-2AEDF68BE146}"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="4" r:id="rId1"/>
@@ -829,7 +829,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,12 +888,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1072,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1086,86 +1080,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1190,37 +1135,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1551,38 +1540,38 @@
       <c r="A1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
+      <c r="A2" s="24"/>
       <c r="B2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1593,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F649AB-F74A-4455-90E1-444B810FE59D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,13 +1594,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="56" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1619,10 +1608,10 @@
       <c r="A2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1630,10 +1619,10 @@
       <c r="A3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1641,10 +1630,10 @@
       <c r="A4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1652,10 +1641,10 @@
       <c r="A5" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>218</v>
       </c>
     </row>
@@ -1663,10 +1652,10 @@
       <c r="A6" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1674,10 +1663,10 @@
       <c r="A7" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1685,10 +1674,10 @@
       <c r="A8" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1703,1055 +1692,1057 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:F52"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="33">
         <v>2006</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="33">
         <v>2005</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="54" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="34">
         <v>2015</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="54" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="33">
         <v>2018</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="29">
         <v>2019</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="30">
         <v>2009</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="33">
         <v>2013</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="54" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="33">
         <v>2014</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="54" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="33">
         <v>2010</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="54" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="31">
         <v>2016</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="30">
         <v>2005</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="57" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="33">
         <v>1996</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="54" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="34">
         <v>2014</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="54" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="31">
         <v>2016</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="30">
         <v>2009</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="57" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="31">
         <v>2016</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="30">
         <v>2011</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="57" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="33">
         <v>2012</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="54" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="34">
         <v>2015</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="54" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="33">
         <v>2018</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="54" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="33">
         <v>2015</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="54" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="33">
         <v>2015</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="54" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="33">
         <v>2017</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="54" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="29">
         <v>2019</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="32">
         <v>2019</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="57" t="s">
+      <c r="E26" s="52"/>
+      <c r="F26" s="52" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="33">
         <v>2017</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="54" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="33">
         <v>2019</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54" t="s">
+      <c r="E28" s="49"/>
+      <c r="F28" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="33">
         <v>2019</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="54" t="s">
+      <c r="E29" s="49"/>
+      <c r="F29" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="33">
         <v>2020</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="54" t="s">
+      <c r="E30" s="49"/>
+      <c r="F30" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="34">
         <v>2017</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="54" t="s">
+      <c r="E31" s="49"/>
+      <c r="F31" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="34">
         <v>2019</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="54" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="34">
         <v>2021</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="49"/>
+      <c r="F33" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="54"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="34">
         <v>2018</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="54" t="s">
+      <c r="E35" s="49"/>
+      <c r="F35" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="33">
         <v>2018</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="54" t="s">
+      <c r="E36" s="49"/>
+      <c r="F36" s="49" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B37" s="31">
         <v>2019</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15" t="s">
+      <c r="E37" s="51"/>
+      <c r="F37" s="51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="32">
         <v>2018</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="57" t="s">
+      <c r="E38" s="52"/>
+      <c r="F38" s="52" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="34">
         <v>2020</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="49"/>
+      <c r="D39" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="54" t="s">
+      <c r="E39" s="49"/>
+      <c r="F39" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="34">
         <v>2021</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="54" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="34">
         <v>2019</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="54" t="s">
+      <c r="E41" s="49"/>
+      <c r="F41" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="31">
         <v>2020</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15" t="s">
+      <c r="E42" s="51"/>
+      <c r="F42" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="32">
         <v>2021</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="57" t="s">
+      <c r="E43" s="52"/>
+      <c r="F43" s="52" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="34">
         <v>2021</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="49"/>
+      <c r="D44" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="54" t="s">
+      <c r="E44" s="49"/>
+      <c r="F44" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="34">
         <v>2021</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="49"/>
+      <c r="D45" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="54" t="s">
+      <c r="E45" s="49"/>
+      <c r="F45" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="48">
+      <c r="B46" s="29">
         <v>2019</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15" t="s">
+      <c r="E46" s="51"/>
+      <c r="F46" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="51">
+      <c r="B47" s="32">
         <v>2020</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16" t="s">
+      <c r="C47" s="52"/>
+      <c r="D47" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="57" t="s">
+      <c r="E47" s="52"/>
+      <c r="F47" s="52" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="56">
+      <c r="B48" s="34">
         <v>2021</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="49"/>
+      <c r="D48" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="54" t="s">
+      <c r="E48" s="49"/>
+      <c r="F48" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="56">
+      <c r="B49" s="34">
         <v>2021</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="49"/>
+      <c r="D49" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="54" t="s">
+      <c r="E49" s="49"/>
+      <c r="F49" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="34">
         <v>2020</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52" t="s">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="54" t="s">
+      <c r="E50" s="49"/>
+      <c r="F50" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="56">
+      <c r="B51" s="34">
         <v>2020</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="54" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="56">
+      <c r="B52" s="34">
         <v>2016</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="49"/>
+      <c r="D52" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="54" t="s">
+      <c r="E52" s="49"/>
+      <c r="F52" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53" s="31">
         <v>2019</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15" t="s">
+      <c r="E53" s="51"/>
+      <c r="F53" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="32">
         <v>2020</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="57" t="s">
+      <c r="E54" s="52"/>
+      <c r="F54" s="52" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="34">
         <v>2020</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="49"/>
+      <c r="D55" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="54" t="s">
+      <c r="E55" s="49"/>
+      <c r="F55" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="34">
         <v>2020</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52" t="s">
+      <c r="C56" s="49"/>
+      <c r="D56" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="54" t="s">
+      <c r="E56" s="49"/>
+      <c r="F56" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="34">
         <v>2020</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52" t="s">
+      <c r="C57" s="49"/>
+      <c r="D57" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="54" t="s">
+      <c r="E57" s="49"/>
+      <c r="F57" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="34">
         <v>2020</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52" t="s">
+      <c r="C58" s="49"/>
+      <c r="D58" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="54" t="s">
+      <c r="E58" s="49"/>
+      <c r="F58" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="50">
+      <c r="B59" s="31">
         <v>2021</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15" t="s">
+      <c r="E59" s="51"/>
+      <c r="F59" s="51" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="33">
         <v>1993</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="48" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="47">
+      <c r="B61" s="28">
         <v>2011</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="48" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="47">
+      <c r="B62" s="28">
         <v>2016</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="48" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="47">
+      <c r="B63" s="28">
         <v>2020</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="48" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="46">
+      <c r="B64" s="27">
         <v>2019</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="48" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2759,9 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AE2F4A-0B77-4A7B-B8F7-4EECE91CED14}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2790,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2798,10 +2787,10 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2832,13 +2821,13 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="23" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2849,7 +2838,7 @@
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2866,10 +2855,10 @@
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2883,37 +2872,37 @@
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -2929,7 +2918,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2946,10 +2935,10 @@
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2969,7 +2958,7 @@
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3010,7 +2999,7 @@
       <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3025,7 +3014,7 @@
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3044,7 +3033,7 @@
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3080,7 +3069,7 @@
       <c r="B35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3092,14 +3081,14 @@
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3116,7 +3105,7 @@
       <c r="B39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3154,7 +3143,7 @@
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3165,7 +3154,7 @@
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3210,7 +3199,7 @@
       <c r="B49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3221,7 +3210,7 @@
       <c r="B50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3232,7 +3221,7 @@
       <c r="B51" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3241,7 +3230,7 @@
         <v>84</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
@@ -3250,7 +3239,7 @@
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3290,7 +3279,7 @@
       <c r="B57" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3301,7 +3290,7 @@
       <c r="B58" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="17" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3317,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3374,7 +3363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2847BFF1-2153-4FD9-B02D-75F812E4CD35}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -3387,366 +3376,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" ht="93" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="58" t="s">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="35" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="37" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="21" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="40" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="22" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="59" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="35" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="37" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -3759,12 +3745,15 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{1C52E707-CAF5-48C8-8318-4082CFDD2A01}"/>
